--- a/ssp_modeling/scenario_mapping/ssp_uganda_transformation_cw_2025_04_02.xlsx
+++ b/ssp_modeling/scenario_mapping/ssp_uganda_transformation_cw_2025_04_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fabian_fuentes\repos\ssp_uganda\ssp_modeling\scenario_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1998C4-534D-426C-870B-90606D38A16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414E9ECC-E843-4B66-B11F-5A0025F17FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1710,7 +1710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1823,7 +1823,6 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2165,35 +2164,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="48.5703125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" style="16" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="62.5546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="48.5546875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="40.44140625" style="16" customWidth="1"/>
     <col min="11" max="12" width="35" style="16" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" style="45" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="4" customWidth="1"/>
-    <col min="15" max="16" width="20.42578125" style="29" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="15"/>
+    <col min="13" max="13" width="31.44140625" style="44" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="4" customWidth="1"/>
+    <col min="15" max="16" width="20.44140625" style="29" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +2229,7 @@
       <c r="L1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="40" t="s">
         <v>471</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -2243,7 +2242,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="12" customFormat="1" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2275,7 @@
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="42">
+      <c r="M2" s="41">
         <v>0.45</v>
       </c>
       <c r="N2" s="11">
@@ -2288,12 +2287,12 @@
       <c r="P2" s="36">
         <v>1E-4</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="Q2" s="45">
         <f>+M2*P2</f>
         <v>4.5000000000000003E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2320,7 +2319,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="43">
+      <c r="M3" s="42">
         <v>0.5</v>
       </c>
       <c r="N3" s="11">
@@ -2330,12 +2329,12 @@
       <c r="P3" s="36">
         <v>1E-4</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="45">
         <f>+M3*P3</f>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2361,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="43">
+      <c r="M4" s="42">
         <v>0.3</v>
       </c>
       <c r="N4" s="11">
@@ -2373,7 +2372,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2403,7 +2402,7 @@
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="43" t="s">
         <v>472</v>
       </c>
       <c r="N5" s="11">
@@ -2416,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -2453,7 +2452,7 @@
       <c r="L6" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="42">
         <v>0.2</v>
       </c>
       <c r="N6" s="11" t="s">
@@ -2466,7 +2465,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>80</v>
       </c>
@@ -2493,7 +2492,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="43">
+      <c r="M7" s="42">
         <v>50</v>
       </c>
       <c r="N7" s="11" t="s">
@@ -2504,7 +2503,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>80</v>
       </c>
@@ -2541,7 +2540,7 @@
       <c r="L8" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="43" t="s">
         <v>473</v>
       </c>
       <c r="N8" s="11">
@@ -2554,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>80</v>
       </c>
@@ -2591,7 +2590,7 @@
       <c r="L9" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="42">
         <v>0.95</v>
       </c>
       <c r="N9" s="11">
@@ -2604,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
@@ -2641,7 +2640,7 @@
       <c r="L10" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="42">
         <v>0.95</v>
       </c>
       <c r="N10" s="11">
@@ -2654,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>80</v>
       </c>
@@ -2681,7 +2680,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="43">
+      <c r="M11" s="42">
         <v>0.8</v>
       </c>
       <c r="N11" s="11">
@@ -2692,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>80</v>
       </c>
@@ -2719,7 +2718,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="43">
+      <c r="M12" s="42">
         <v>0.8</v>
       </c>
       <c r="N12" s="11">
@@ -2730,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>80</v>
       </c>
@@ -2767,7 +2766,7 @@
       <c r="L13" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="M13" s="44">
+      <c r="M13" s="43">
         <v>0.3</v>
       </c>
       <c r="N13" s="11" t="s">
@@ -2780,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>80</v>
       </c>
@@ -2817,7 +2816,7 @@
       <c r="L14" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="M14" s="44">
+      <c r="M14" s="43">
         <v>0.4</v>
       </c>
       <c r="N14" s="11" t="s">
@@ -2830,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>80</v>
       </c>
@@ -2857,7 +2856,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="43" t="s">
+      <c r="M15" s="42" t="s">
         <v>474</v>
       </c>
       <c r="N15" s="11">
@@ -2868,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>127</v>
       </c>
@@ -2905,7 +2904,7 @@
       <c r="L16" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="41">
         <v>0.5</v>
       </c>
       <c r="N16" s="11">
@@ -2918,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>127</v>
       </c>
@@ -2955,7 +2954,7 @@
       <c r="L17" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="42">
         <v>0.3</v>
       </c>
       <c r="N17" s="11">
@@ -2968,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>127</v>
       </c>
@@ -3005,7 +3004,7 @@
       <c r="L18" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="41">
         <v>0.1</v>
       </c>
       <c r="N18" s="11">
@@ -3018,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>127</v>
       </c>
@@ -3045,7 +3044,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="42">
+      <c r="M19" s="41">
         <v>0.1</v>
       </c>
       <c r="N19" s="11">
@@ -3056,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>127</v>
       </c>
@@ -3083,7 +3082,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="42">
+      <c r="M20" s="41">
         <v>0.1</v>
       </c>
       <c r="N20" s="11">
@@ -3094,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>127</v>
       </c>
@@ -3121,7 +3120,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="42">
+      <c r="M21" s="41">
         <v>0.1</v>
       </c>
       <c r="N21" s="11">
@@ -3132,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
@@ -3169,21 +3168,28 @@
       <c r="L22" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="41">
         <v>0.999</v>
       </c>
       <c r="N22" s="18">
         <v>1</v>
       </c>
       <c r="O22" s="38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P22" s="38">
         <v>1</v>
       </c>
-      <c r="Q22" s="40"/>
-    </row>
-    <row r="23" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="41">
+        <f>+M22*O22</f>
+        <v>0.79920000000000002</v>
+      </c>
+      <c r="R22" s="41">
+        <f>+M22*P22</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -3218,7 +3224,7 @@
       <c r="L23" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="42">
         <v>0.95</v>
       </c>
       <c r="N23" s="11">
@@ -3227,7 +3233,7 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -3264,7 +3270,7 @@
       <c r="L24" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="41">
         <v>0.2</v>
       </c>
       <c r="N24" s="11" t="s">
@@ -3277,7 +3283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
@@ -3312,7 +3318,7 @@
       <c r="L25" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="42">
         <v>0.1</v>
       </c>
       <c r="N25" s="11">
@@ -3321,7 +3327,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -3352,7 +3358,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="43">
+      <c r="M26" s="42">
         <v>0.9</v>
       </c>
       <c r="N26" s="11">
@@ -3365,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -3396,7 +3402,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="43" t="s">
+      <c r="M27" s="42" t="s">
         <v>475</v>
       </c>
       <c r="N27" s="11">
@@ -3409,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -3440,7 +3446,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="43" t="s">
+      <c r="M28" s="42" t="s">
         <v>476</v>
       </c>
       <c r="N28" s="11">
@@ -3453,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
@@ -3484,7 +3490,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="43" t="s">
+      <c r="M29" s="42" t="s">
         <v>477</v>
       </c>
       <c r="N29" s="11">
@@ -3497,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -3524,7 +3530,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="42" t="s">
+      <c r="M30" s="41" t="s">
         <v>478</v>
       </c>
       <c r="N30" s="11">
@@ -3535,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
@@ -3562,7 +3568,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="43">
+      <c r="M31" s="42">
         <v>0.5</v>
       </c>
       <c r="N31" s="11">
@@ -3573,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -3610,7 +3616,7 @@
       <c r="L32" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="42">
         <v>0.3</v>
       </c>
       <c r="N32" s="11" t="s">
@@ -3623,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>151</v>
       </c>
@@ -3650,7 +3656,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
-      <c r="M33" s="43">
+      <c r="M33" s="42">
         <v>0.5</v>
       </c>
       <c r="N33" s="11">
@@ -3659,7 +3665,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>151</v>
       </c>
@@ -3686,7 +3692,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
-      <c r="M34" s="43">
+      <c r="M34" s="42">
         <v>0.9</v>
       </c>
       <c r="N34" s="11">
@@ -3697,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>80</v>
       </c>
@@ -3724,7 +3730,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="44">
+      <c r="M35" s="43">
         <v>0.5</v>
       </c>
       <c r="N35" s="11">
@@ -3735,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>80</v>
       </c>
@@ -3762,7 +3768,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="43">
+      <c r="M36" s="42">
         <v>0.5</v>
       </c>
       <c r="N36" s="11" t="s">
@@ -3773,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>80</v>
       </c>
@@ -3800,7 +3806,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="44">
+      <c r="M37" s="43">
         <v>0.95</v>
       </c>
       <c r="N37" s="11">
@@ -3811,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
@@ -3838,7 +3844,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
-      <c r="M38" s="43">
+      <c r="M38" s="42">
         <v>0.2</v>
       </c>
       <c r="N38" s="11">
@@ -3851,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -3878,7 +3884,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="43">
+      <c r="M39" s="42">
         <v>0.2</v>
       </c>
       <c r="N39" s="11">
@@ -3891,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>80</v>
       </c>
@@ -3928,7 +3934,7 @@
       <c r="L40" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="42">
         <v>0.25</v>
       </c>
       <c r="N40" s="11">
@@ -3941,7 +3947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>80</v>
       </c>
@@ -3978,7 +3984,7 @@
       <c r="L41" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="M41" s="43">
+      <c r="M41" s="42">
         <v>0.25</v>
       </c>
       <c r="N41" s="11">
@@ -3991,7 +3997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>80</v>
       </c>
@@ -4028,7 +4034,7 @@
       <c r="L42" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="M42" s="43">
+      <c r="M42" s="42">
         <v>0.25</v>
       </c>
       <c r="N42" s="11">
@@ -4041,7 +4047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>80</v>
       </c>
@@ -4068,7 +4074,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="43">
+      <c r="M43" s="42">
         <v>0.25</v>
       </c>
       <c r="N43" s="11">
@@ -4079,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>80</v>
       </c>
@@ -4106,7 +4112,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
-      <c r="M44" s="43">
+      <c r="M44" s="42">
         <v>0.7</v>
       </c>
       <c r="N44" s="11">
@@ -4117,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>80</v>
       </c>
@@ -4154,7 +4160,7 @@
       <c r="L45" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="M45" s="43">
+      <c r="M45" s="42">
         <v>0.7</v>
       </c>
       <c r="N45" s="11">
@@ -4167,7 +4173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>80</v>
       </c>
@@ -4204,7 +4210,7 @@
       <c r="L46" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="M46" s="44">
+      <c r="M46" s="43">
         <v>0.7</v>
       </c>
       <c r="N46" s="11">
@@ -4217,7 +4223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>80</v>
       </c>
@@ -4244,7 +4250,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
-      <c r="M47" s="43">
+      <c r="M47" s="42">
         <v>0.25</v>
       </c>
       <c r="N47" s="11">
@@ -4255,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>80</v>
       </c>
@@ -4292,7 +4298,7 @@
       <c r="L48" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="M48" s="43">
+      <c r="M48" s="42">
         <v>0.2</v>
       </c>
       <c r="N48" s="11">
@@ -4305,7 +4311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>80</v>
       </c>
@@ -4342,7 +4348,7 @@
       <c r="L49" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="M49" s="43">
+      <c r="M49" s="42">
         <v>0.3</v>
       </c>
       <c r="N49" s="11">
@@ -4355,7 +4361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>80</v>
       </c>
@@ -4392,7 +4398,7 @@
       <c r="L50" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="M50" s="43" t="s">
+      <c r="M50" s="42" t="s">
         <v>479</v>
       </c>
       <c r="N50" s="11">
@@ -4405,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>127</v>
       </c>
@@ -4432,7 +4438,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
-      <c r="M51" s="43">
+      <c r="M51" s="42">
         <v>0.85</v>
       </c>
       <c r="N51" s="11">
@@ -4443,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>127</v>
       </c>
@@ -4480,7 +4486,7 @@
       <c r="L52" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="M52" s="43">
+      <c r="M52" s="42">
         <v>0.9</v>
       </c>
       <c r="N52" s="11">
@@ -4493,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>57</v>
       </c>
@@ -4530,7 +4536,7 @@
       <c r="L53" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="M53" s="43" t="s">
+      <c r="M53" s="42" t="s">
         <v>480</v>
       </c>
       <c r="N53" s="11">
@@ -4543,7 +4549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>57</v>
       </c>
@@ -4580,7 +4586,7 @@
       <c r="L54" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="M54" s="43" t="s">
+      <c r="M54" s="42" t="s">
         <v>481</v>
       </c>
       <c r="N54" s="11">
@@ -4593,7 +4599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>57</v>
       </c>
@@ -4630,7 +4636,7 @@
       <c r="L55" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="M55" s="43" t="s">
+      <c r="M55" s="42" t="s">
         <v>482</v>
       </c>
       <c r="N55" s="11">
@@ -4643,7 +4649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>57</v>
       </c>
@@ -4680,7 +4686,7 @@
       <c r="L56" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="M56" s="43">
+      <c r="M56" s="42">
         <v>0.3</v>
       </c>
       <c r="N56" s="11">
@@ -4693,7 +4699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -4724,7 +4730,7 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
-      <c r="M57" s="42" t="s">
+      <c r="M57" s="41" t="s">
         <v>483</v>
       </c>
       <c r="N57" s="11">
@@ -4735,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -4770,7 +4776,7 @@
       <c r="L58" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="M58" s="42">
+      <c r="M58" s="41">
         <v>0.85</v>
       </c>
       <c r="N58" s="11">
@@ -4783,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
@@ -4814,7 +4820,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="42">
+      <c r="M59" s="41">
         <v>0.85</v>
       </c>
       <c r="N59" s="11">
@@ -4827,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -4858,7 +4864,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="42">
+      <c r="M60" s="41">
         <v>0.85</v>
       </c>
       <c r="N60" s="11">
@@ -4871,7 +4877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>57</v>
       </c>
@@ -4908,7 +4914,7 @@
       <c r="L61" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="M61" s="42">
+      <c r="M61" s="41">
         <v>1</v>
       </c>
       <c r="N61" s="11">
@@ -4921,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>57</v>
       </c>
@@ -4958,7 +4964,7 @@
       <c r="L62" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="M62" s="43">
+      <c r="M62" s="42">
         <v>0.95</v>
       </c>
       <c r="N62" s="11">
@@ -5057,6 +5063,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N7 P7">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N22:P22">
     <cfRule type="colorScale" priority="123">
       <colorScale>
@@ -5095,6 +5113,18 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O1048576 O1:O6">
     <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5219,18 +5249,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7 N7">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P8:P10">
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -5303,18 +5321,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -5326,17 +5332,17 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>144</v>
       </c>
@@ -5358,7 +5364,7 @@
         <v>strategy_NZ</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>145</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>145</v>
       </c>
@@ -5402,7 +5408,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>145</v>
       </c>
@@ -5424,7 +5430,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>145</v>
       </c>
@@ -5446,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>145</v>
       </c>
@@ -5468,7 +5474,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>154</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>155</v>
       </c>
@@ -5512,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>155</v>
       </c>
@@ -5534,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>155</v>
       </c>
@@ -5556,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>156</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>156</v>
       </c>
@@ -5600,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>157</v>
       </c>
@@ -5622,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>157</v>
       </c>
@@ -5644,7 +5650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>157</v>
       </c>
@@ -5666,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>127</v>
       </c>
@@ -5688,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>127</v>
       </c>
@@ -5710,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>127</v>
       </c>
@@ -5732,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>127</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>127</v>
       </c>
@@ -5776,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>127</v>
       </c>
@@ -5798,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>146</v>
       </c>
@@ -5813,14 +5819,14 @@
       </c>
       <c r="E22" s="35">
         <f>+IF(VLOOKUP(B22,main!$C$2:$P$62,13,FALSE)=0,"",VLOOKUP(B22,main!$C$2:$P$62,13,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F22" s="35">
         <f>+IF(VLOOKUP(B22,main!C22:P82,14,FALSE)=0,"",VLOOKUP(B22,main!C22:P82,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>146</v>
       </c>
@@ -5842,7 +5848,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>146</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>146</v>
       </c>
@@ -5886,7 +5892,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>147</v>
       </c>
@@ -5908,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>147</v>
       </c>
@@ -5930,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>147</v>
       </c>
@@ -5952,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>147</v>
       </c>
@@ -5974,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>148</v>
       </c>
@@ -5996,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>148</v>
       </c>
@@ -6018,7 +6024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>148</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>150</v>
       </c>
@@ -6062,7 +6068,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
         <v>150</v>
       </c>
@@ -6084,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
         <v>158</v>
       </c>
@@ -6106,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>158</v>
       </c>
@@ -6128,7 +6134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>158</v>
       </c>
@@ -6150,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
         <v>149</v>
       </c>
@@ -6172,7 +6178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>149</v>
       </c>
@@ -6194,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
         <v>159</v>
       </c>
@@ -6216,7 +6222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
         <v>160</v>
       </c>
@@ -6238,7 +6244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
         <v>160</v>
       </c>
@@ -6260,7 +6266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>160</v>
       </c>
@@ -6282,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>160</v>
       </c>
@@ -6304,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>160</v>
       </c>
@@ -6326,7 +6332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>160</v>
       </c>
@@ -6348,7 +6354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>160</v>
       </c>
@@ -6370,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
         <v>160</v>
       </c>
@@ -6392,7 +6398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>160</v>
       </c>
@@ -6414,7 +6420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
         <v>160</v>
       </c>
@@ -6436,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>161</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
         <v>161</v>
       </c>
@@ -6480,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>152</v>
       </c>
@@ -6502,7 +6508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
         <v>152</v>
       </c>
@@ -6524,7 +6530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>152</v>
       </c>
@@ -6546,7 +6552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
         <v>153</v>
       </c>
@@ -6568,7 +6574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
         <v>153</v>
       </c>
@@ -6590,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
         <v>153</v>
       </c>
@@ -6612,7 +6618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
         <v>153</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
         <v>153</v>
       </c>
@@ -6656,7 +6662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
         <v>153</v>
       </c>
@@ -6678,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
         <v>153</v>
       </c>
